--- a/BackTest/2020-01-21 BackTest DASH.xlsx
+++ b/BackTest/2020-01-21 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.0501</v>
       </c>
       <c r="G2" t="n">
+        <v>119373.3333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>115681.6666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6.2143</v>
       </c>
       <c r="G3" t="n">
+        <v>119666.6666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>115803.3333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.7924</v>
       </c>
       <c r="G4" t="n">
+        <v>119893.3333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>115920</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>9.02557726</v>
       </c>
       <c r="G5" t="n">
+        <v>120173.3333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>116058.3333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>12.6345</v>
       </c>
       <c r="G6" t="n">
+        <v>120440</v>
+      </c>
+      <c r="H6" t="n">
         <v>116196.6666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>12.38239901</v>
       </c>
       <c r="G7" t="n">
+        <v>120686.6666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>116341.6666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
+        <v>120913.3333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>116486.6666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1.151</v>
       </c>
       <c r="G9" t="n">
+        <v>121193.3333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>116658.3333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>7.2204</v>
       </c>
       <c r="G10" t="n">
+        <v>121400</v>
+      </c>
+      <c r="H10" t="n">
         <v>116811.6666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>30.7703</v>
       </c>
       <c r="G11" t="n">
+        <v>121633.3333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>116960</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>24.37487043</v>
       </c>
       <c r="G12" t="n">
+        <v>121820</v>
+      </c>
+      <c r="H12" t="n">
         <v>117088.3333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10.38781783</v>
       </c>
       <c r="G13" t="n">
+        <v>121973.3333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>117210</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>68.6356</v>
       </c>
       <c r="G14" t="n">
+        <v>121906.6666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>117301.6666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>0.1001</v>
       </c>
       <c r="G15" t="n">
+        <v>121913.3333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>117406.6666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2.0053</v>
       </c>
       <c r="G16" t="n">
+        <v>121926.6666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>117525</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>47.9036</v>
       </c>
       <c r="G17" t="n">
+        <v>121920</v>
+      </c>
+      <c r="H17" t="n">
         <v>117643.3333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2.1769</v>
       </c>
       <c r="G18" t="n">
+        <v>121866.6666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>117753.3333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>14.2311</v>
       </c>
       <c r="G19" t="n">
+        <v>121760</v>
+      </c>
+      <c r="H19" t="n">
         <v>117848.3333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2.3061</v>
       </c>
       <c r="G20" t="n">
+        <v>121646.6666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>117956.6666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10.0796</v>
       </c>
       <c r="G21" t="n">
+        <v>121560</v>
+      </c>
+      <c r="H21" t="n">
         <v>118078.3333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2.28772391</v>
       </c>
       <c r="G22" t="n">
+        <v>121520</v>
+      </c>
+      <c r="H22" t="n">
         <v>118201.6666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3.4853</v>
       </c>
       <c r="G23" t="n">
+        <v>121493.3333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>118318.3333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.1365</v>
       </c>
       <c r="G24" t="n">
+        <v>121400</v>
+      </c>
+      <c r="H24" t="n">
         <v>118438.3333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>8.5174</v>
       </c>
       <c r="G25" t="n">
+        <v>121246.6666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>118545</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>33.065</v>
       </c>
       <c r="G26" t="n">
+        <v>120980</v>
+      </c>
+      <c r="H26" t="n">
         <v>118626.6666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2.2877</v>
       </c>
       <c r="G27" t="n">
+        <v>120826.6666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>118711.6666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>0.3391</v>
       </c>
       <c r="G28" t="n">
+        <v>120686.6666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>118803.3333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>45.847</v>
       </c>
       <c r="G29" t="n">
+        <v>120566.6666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>118860</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>14.1761</v>
       </c>
       <c r="G30" t="n">
+        <v>120206.6666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>118881.6666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,22 +1555,21 @@
         <v>9.5533</v>
       </c>
       <c r="G31" t="n">
+        <v>119940</v>
+      </c>
+      <c r="H31" t="n">
         <v>118933.3333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>115600</v>
-      </c>
-      <c r="K31" t="n">
-        <v>115600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,24 +1593,21 @@
         <v>3.4329</v>
       </c>
       <c r="G32" t="n">
+        <v>119720</v>
+      </c>
+      <c r="H32" t="n">
         <v>118990</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>115600</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,26 +1631,21 @@
         <v>5.3606</v>
       </c>
       <c r="G33" t="n">
+        <v>119493.3333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>119045</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>117400</v>
-      </c>
-      <c r="K33" t="n">
-        <v>115600</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1669,21 @@
         <v>8.2773</v>
       </c>
       <c r="G34" t="n">
+        <v>119380</v>
+      </c>
+      <c r="H34" t="n">
         <v>119116.6666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1707,21 @@
         <v>4.8</v>
       </c>
       <c r="G35" t="n">
+        <v>119240</v>
+      </c>
+      <c r="H35" t="n">
         <v>119191.6666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1745,21 @@
         <v>3.934</v>
       </c>
       <c r="G36" t="n">
+        <v>119033.3333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>119256.6666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1783,21 @@
         <v>1.1733</v>
       </c>
       <c r="G37" t="n">
+        <v>118840</v>
+      </c>
+      <c r="H37" t="n">
         <v>119335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1821,21 @@
         <v>4.2071</v>
       </c>
       <c r="G38" t="n">
+        <v>118673.3333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>119423.3333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1859,21 @@
         <v>0.1465</v>
       </c>
       <c r="G39" t="n">
+        <v>118453.3333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>119491.6666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1897,21 @@
         <v>12.0376</v>
       </c>
       <c r="G40" t="n">
+        <v>118266.6666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>119556.6666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1935,21 @@
         <v>4.4595</v>
       </c>
       <c r="G41" t="n">
+        <v>118226.6666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>119631.6666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +1973,21 @@
         <v>8.8637</v>
       </c>
       <c r="G42" t="n">
+        <v>118066.6666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>119685</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2011,21 @@
         <v>0.2193</v>
       </c>
       <c r="G43" t="n">
+        <v>117900</v>
+      </c>
+      <c r="H43" t="n">
         <v>119736.6666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2049,21 @@
         <v>2</v>
       </c>
       <c r="G44" t="n">
+        <v>117920</v>
+      </c>
+      <c r="H44" t="n">
         <v>119765</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2087,21 @@
         <v>29.5651</v>
       </c>
       <c r="G45" t="n">
+        <v>118140</v>
+      </c>
+      <c r="H45" t="n">
         <v>119798.3333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2125,21 @@
         <v>14.2055</v>
       </c>
       <c r="G46" t="n">
+        <v>118300</v>
+      </c>
+      <c r="H46" t="n">
         <v>119821.6666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2163,21 @@
         <v>0.8250999999999999</v>
       </c>
       <c r="G47" t="n">
+        <v>118433.3333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>119861.6666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2201,21 @@
         <v>0.0065</v>
       </c>
       <c r="G48" t="n">
+        <v>118573.3333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>119900</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2239,21 @@
         <v>0.9476</v>
       </c>
       <c r="G49" t="n">
+        <v>118613.3333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>119911.6666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2277,21 @@
         <v>0.1028</v>
       </c>
       <c r="G50" t="n">
+        <v>118586.6666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>119911.6666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2315,21 @@
         <v>1.2658</v>
       </c>
       <c r="G51" t="n">
+        <v>118606.6666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>119910</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2353,21 @@
         <v>1.5</v>
       </c>
       <c r="G52" t="n">
+        <v>118486.6666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>119883.3333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2391,21 @@
         <v>6.6322</v>
       </c>
       <c r="G53" t="n">
+        <v>118340</v>
+      </c>
+      <c r="H53" t="n">
         <v>119855</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2429,21 @@
         <v>1.9913</v>
       </c>
       <c r="G54" t="n">
+        <v>118240</v>
+      </c>
+      <c r="H54" t="n">
         <v>119821.6666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2467,21 @@
         <v>40.7461</v>
       </c>
       <c r="G55" t="n">
+        <v>118140</v>
+      </c>
+      <c r="H55" t="n">
         <v>119763.3333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2505,21 @@
         <v>10.4645</v>
       </c>
       <c r="G56" t="n">
+        <v>118000</v>
+      </c>
+      <c r="H56" t="n">
         <v>119710</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2543,21 @@
         <v>8.6493</v>
       </c>
       <c r="G57" t="n">
+        <v>117993.3333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>119676.6666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2581,21 @@
         <v>6.8341</v>
       </c>
       <c r="G58" t="n">
+        <v>117993.3333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>119638.3333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2619,21 @@
         <v>35.2546</v>
       </c>
       <c r="G59" t="n">
+        <v>117966.6666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>119590</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2657,21 @@
         <v>15.432</v>
       </c>
       <c r="G60" t="n">
+        <v>117973.3333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>119558.3333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2695,21 @@
         <v>8.527100000000001</v>
       </c>
       <c r="G61" t="n">
+        <v>117886.6666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>119513.3333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2733,21 @@
         <v>0.1391</v>
       </c>
       <c r="G62" t="n">
+        <v>117826.6666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>119475</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2771,21 @@
         <v>1.4005</v>
       </c>
       <c r="G63" t="n">
+        <v>117753.3333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>119421.6666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2809,21 @@
         <v>5.8435</v>
       </c>
       <c r="G64" t="n">
+        <v>117686.6666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>119360</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2847,21 @@
         <v>0.7595</v>
       </c>
       <c r="G65" t="n">
+        <v>117793.3333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>119316.6666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +2885,21 @@
         <v>19.5692</v>
       </c>
       <c r="G66" t="n">
+        <v>117926.6666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>119281.6666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +2923,21 @@
         <v>4.0983</v>
       </c>
       <c r="G67" t="n">
+        <v>118093.3333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>119235</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +2961,21 @@
         <v>0.0042</v>
       </c>
       <c r="G68" t="n">
+        <v>118233.3333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>119185</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +2999,21 @@
         <v>4.14</v>
       </c>
       <c r="G69" t="n">
+        <v>118440</v>
+      </c>
+      <c r="H69" t="n">
         <v>119133.3333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3037,21 @@
         <v>5</v>
       </c>
       <c r="G70" t="n">
+        <v>118673.3333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>119081.6666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3075,21 @@
         <v>0.017</v>
       </c>
       <c r="G71" t="n">
+        <v>118833.3333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>119010</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3113,21 @@
         <v>0.0556105</v>
       </c>
       <c r="G72" t="n">
+        <v>119006.6666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>118973.3333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3151,21 @@
         <v>6.7356</v>
       </c>
       <c r="G73" t="n">
+        <v>119120</v>
+      </c>
+      <c r="H73" t="n">
         <v>118925</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3189,21 @@
         <v>0.03703333</v>
       </c>
       <c r="G74" t="n">
+        <v>119273.3333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>118931.6666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3227,21 @@
         <v>3.484</v>
       </c>
       <c r="G75" t="n">
+        <v>119293.3333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>118903.3333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3265,21 @@
         <v>0.907</v>
       </c>
       <c r="G76" t="n">
+        <v>119373.3333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>118875</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3303,21 @@
         <v>35.3536</v>
       </c>
       <c r="G77" t="n">
+        <v>119433.3333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>118853.3333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3341,21 @@
         <v>13.7728</v>
       </c>
       <c r="G78" t="n">
+        <v>119493.3333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>118828.3333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3379,21 @@
         <v>22.9076</v>
       </c>
       <c r="G79" t="n">
+        <v>119586.6666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>118816.6666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3417,21 @@
         <v>1.7</v>
       </c>
       <c r="G80" t="n">
+        <v>119580</v>
+      </c>
+      <c r="H80" t="n">
         <v>118800</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3455,21 @@
         <v>10.1694</v>
       </c>
       <c r="G81" t="n">
+        <v>119533.3333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>118775</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3493,21 @@
         <v>7.8625</v>
       </c>
       <c r="G82" t="n">
+        <v>119546.6666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>118741.6666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3531,21 @@
         <v>0.2</v>
       </c>
       <c r="G83" t="n">
+        <v>119593.3333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>118710</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3569,21 @@
         <v>1.936</v>
       </c>
       <c r="G84" t="n">
+        <v>119560</v>
+      </c>
+      <c r="H84" t="n">
         <v>118673.3333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3607,21 @@
         <v>0.3999</v>
       </c>
       <c r="G85" t="n">
+        <v>119580</v>
+      </c>
+      <c r="H85" t="n">
         <v>118665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3645,21 @@
         <v>39.85849412</v>
       </c>
       <c r="G86" t="n">
+        <v>119706.6666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>118691.6666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3683,21 @@
         <v>0.05039669</v>
       </c>
       <c r="G87" t="n">
+        <v>119780</v>
+      </c>
+      <c r="H87" t="n">
         <v>118711.6666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3721,21 @@
         <v>1.5998</v>
       </c>
       <c r="G88" t="n">
+        <v>119860</v>
+      </c>
+      <c r="H88" t="n">
         <v>118718.3333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3759,21 @@
         <v>8.257400000000001</v>
       </c>
       <c r="G89" t="n">
+        <v>119886.6666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>118761.6666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3797,21 @@
         <v>5.3029</v>
       </c>
       <c r="G90" t="n">
+        <v>119993.3333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>118850</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3835,21 @@
         <v>0.1426</v>
       </c>
       <c r="G91" t="n">
+        <v>120066.6666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>118906.6666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3873,21 @@
         <v>14.7785</v>
       </c>
       <c r="G92" t="n">
+        <v>120146.6666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>118960</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +3911,21 @@
         <v>61.1866</v>
       </c>
       <c r="G93" t="n">
+        <v>120240</v>
+      </c>
+      <c r="H93" t="n">
         <v>119015</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +3949,21 @@
         <v>16.0435</v>
       </c>
       <c r="G94" t="n">
+        <v>120266.6666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>119038.3333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +3987,21 @@
         <v>0.5284</v>
       </c>
       <c r="G95" t="n">
+        <v>120266.6666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>119056.6666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4025,21 @@
         <v>8.0501</v>
       </c>
       <c r="G96" t="n">
+        <v>120306.6666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>119093.3333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4063,21 @@
         <v>0.02779816</v>
       </c>
       <c r="G97" t="n">
+        <v>120320</v>
+      </c>
+      <c r="H97" t="n">
         <v>119111.6666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4101,21 @@
         <v>0.418</v>
       </c>
       <c r="G98" t="n">
+        <v>120293.3333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>119115</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4139,21 @@
         <v>7.6321</v>
       </c>
       <c r="G99" t="n">
+        <v>120273.3333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>119128.3333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4177,21 @@
         <v>7</v>
       </c>
       <c r="G100" t="n">
+        <v>120133.3333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>119131.6666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4215,21 @@
         <v>1.3221</v>
       </c>
       <c r="G101" t="n">
+        <v>119966.6666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>119126.6666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4253,21 @@
         <v>0.4371</v>
       </c>
       <c r="G102" t="n">
+        <v>119786.6666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>119141.6666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4291,21 @@
         <v>2.0052</v>
       </c>
       <c r="G103" t="n">
+        <v>119633.3333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>119151.6666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4329,21 @@
         <v>6.7917</v>
       </c>
       <c r="G104" t="n">
+        <v>119460</v>
+      </c>
+      <c r="H104" t="n">
         <v>119146.6666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4367,21 @@
         <v>22.0526</v>
       </c>
       <c r="G105" t="n">
+        <v>119240</v>
+      </c>
+      <c r="H105" t="n">
         <v>119125</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4405,21 @@
         <v>0.7335</v>
       </c>
       <c r="G106" t="n">
+        <v>119066.6666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>119098.3333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4443,21 @@
         <v>5.4014</v>
       </c>
       <c r="G107" t="n">
+        <v>118880</v>
+      </c>
+      <c r="H107" t="n">
         <v>119071.6666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4481,21 @@
         <v>1.674</v>
       </c>
       <c r="G108" t="n">
+        <v>118693.3333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>119045</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4519,21 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
+        <v>118586.6666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>119031.6666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4557,21 @@
         <v>14</v>
       </c>
       <c r="G110" t="n">
+        <v>118546.6666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>119046.6666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4595,21 @@
         <v>0.08403360999999999</v>
       </c>
       <c r="G111" t="n">
+        <v>118473.3333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>119060</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4633,21 @@
         <v>4.6818</v>
       </c>
       <c r="G112" t="n">
+        <v>118346.6666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>119076.6666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4671,21 @@
         <v>2.8151</v>
       </c>
       <c r="G113" t="n">
+        <v>118200</v>
+      </c>
+      <c r="H113" t="n">
         <v>119080</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4709,21 @@
         <v>32.54</v>
       </c>
       <c r="G114" t="n">
+        <v>118040</v>
+      </c>
+      <c r="H114" t="n">
         <v>119078.3333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4747,21 @@
         <v>4.4923</v>
       </c>
       <c r="G115" t="n">
+        <v>117886.6666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>119068.3333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4785,21 @@
         <v>1.2891</v>
       </c>
       <c r="G116" t="n">
+        <v>117773.3333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>119070</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +4823,21 @@
         <v>16.5719</v>
       </c>
       <c r="G117" t="n">
+        <v>117620</v>
+      </c>
+      <c r="H117" t="n">
         <v>119048.3333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +4861,21 @@
         <v>14</v>
       </c>
       <c r="G118" t="n">
+        <v>117506.6666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>119030</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +4899,21 @@
         <v>5.9398</v>
       </c>
       <c r="G119" t="n">
+        <v>117366.6666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>118996.6666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +4937,21 @@
         <v>11.1</v>
       </c>
       <c r="G120" t="n">
+        <v>117193.3333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>118930</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +4975,21 @@
         <v>0.0345</v>
       </c>
       <c r="G121" t="n">
+        <v>117006.6666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>118878.3333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5013,21 @@
         <v>54.15999168</v>
       </c>
       <c r="G122" t="n">
+        <v>117006.6666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>118866.6666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5051,21 @@
         <v>1.54</v>
       </c>
       <c r="G123" t="n">
+        <v>116893.3333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>118830</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5089,21 @@
         <v>3.6687</v>
       </c>
       <c r="G124" t="n">
+        <v>116753.3333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>118798.3333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5127,21 @@
         <v>24.6514</v>
       </c>
       <c r="G125" t="n">
+        <v>116526.6666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>118730</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5165,21 @@
         <v>7.032</v>
       </c>
       <c r="G126" t="n">
+        <v>116340</v>
+      </c>
+      <c r="H126" t="n">
         <v>118663.3333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5203,21 @@
         <v>4.82328051</v>
       </c>
       <c r="G127" t="n">
+        <v>116240</v>
+      </c>
+      <c r="H127" t="n">
         <v>118613.3333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5241,21 @@
         <v>7.0436</v>
       </c>
       <c r="G128" t="n">
+        <v>116120</v>
+      </c>
+      <c r="H128" t="n">
         <v>118551.6666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5279,21 @@
         <v>4</v>
       </c>
       <c r="G129" t="n">
+        <v>116073.3333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>118486.6666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5317,21 @@
         <v>61.9</v>
       </c>
       <c r="G130" t="n">
+        <v>116040</v>
+      </c>
+      <c r="H130" t="n">
         <v>118410</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5355,21 @@
         <v>0.42853984</v>
       </c>
       <c r="G131" t="n">
+        <v>116026.6666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>118368.3333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5393,21 @@
         <v>0.9796</v>
       </c>
       <c r="G132" t="n">
+        <v>116040</v>
+      </c>
+      <c r="H132" t="n">
         <v>118306.6666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5431,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
+        <v>116013.3333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>118253.3333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5469,21 @@
         <v>6</v>
       </c>
       <c r="G134" t="n">
+        <v>116060</v>
+      </c>
+      <c r="H134" t="n">
         <v>118193.3333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5507,21 @@
         <v>7</v>
       </c>
       <c r="G135" t="n">
+        <v>116120</v>
+      </c>
+      <c r="H135" t="n">
         <v>118136.6666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5545,21 @@
         <v>0.0273</v>
       </c>
       <c r="G136" t="n">
+        <v>116186.6666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>118081.6666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5583,21 @@
         <v>3.7118</v>
       </c>
       <c r="G137" t="n">
+        <v>116086.6666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>118030</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5621,21 @@
         <v>2.2671</v>
       </c>
       <c r="G138" t="n">
+        <v>116086.6666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>117978.3333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5659,21 @@
         <v>6.8015</v>
       </c>
       <c r="G139" t="n">
+        <v>116086.6666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>117923.3333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5697,21 @@
         <v>0.074</v>
       </c>
       <c r="G140" t="n">
+        <v>116133.3333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>117868.3333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5735,21 @@
         <v>0.3697</v>
       </c>
       <c r="G141" t="n">
+        <v>116053.3333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>117793.3333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5773,21 @@
         <v>0.2693</v>
       </c>
       <c r="G142" t="n">
+        <v>115973.3333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>117720</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5811,21 @@
         <v>31.8541</v>
       </c>
       <c r="G143" t="n">
+        <v>115933.3333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>117636.6666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +5849,21 @@
         <v>6</v>
       </c>
       <c r="G144" t="n">
+        <v>115873.3333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>117565</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +5887,21 @@
         <v>0.04</v>
       </c>
       <c r="G145" t="n">
+        <v>115926.6666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>117496.6666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +5925,21 @@
         <v>54.1599</v>
       </c>
       <c r="G146" t="n">
+        <v>115880</v>
+      </c>
+      <c r="H146" t="n">
         <v>117411.6666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +5963,21 @@
         <v>0.03999476</v>
       </c>
       <c r="G147" t="n">
+        <v>115906.6666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>117338.3333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6001,21 @@
         <v>22.2237</v>
       </c>
       <c r="G148" t="n">
+        <v>115953.3333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>117276.6666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6039,21 @@
         <v>3.023</v>
       </c>
       <c r="G149" t="n">
+        <v>115960</v>
+      </c>
+      <c r="H149" t="n">
         <v>117211.6666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6077,21 @@
         <v>0.02</v>
       </c>
       <c r="G150" t="n">
+        <v>116006.6666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>117140</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6115,21 @@
         <v>0.01</v>
       </c>
       <c r="G151" t="n">
+        <v>116046.6666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>117076.6666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6153,21 @@
         <v>3.3644</v>
       </c>
       <c r="G152" t="n">
+        <v>116046.6666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>117005</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6191,21 @@
         <v>1.3458</v>
       </c>
       <c r="G153" t="n">
+        <v>116093.3333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>116941.6666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6229,21 @@
         <v>1.9793</v>
       </c>
       <c r="G154" t="n">
+        <v>116186.6666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>116903.3333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6267,21 @@
         <v>13.2703</v>
       </c>
       <c r="G155" t="n">
+        <v>116333.3333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>116885</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6305,21 @@
         <v>21.4753</v>
       </c>
       <c r="G156" t="n">
+        <v>116660</v>
+      </c>
+      <c r="H156" t="n">
         <v>116881.6666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6343,21 @@
         <v>5</v>
       </c>
       <c r="G157" t="n">
+        <v>116906.6666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>116866.6666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6381,21 @@
         <v>3.3586</v>
       </c>
       <c r="G158" t="n">
+        <v>117160</v>
+      </c>
+      <c r="H158" t="n">
         <v>116853.3333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6419,21 @@
         <v>0.01</v>
       </c>
       <c r="G159" t="n">
+        <v>117353.3333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>116835</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6457,21 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
+        <v>117480</v>
+      </c>
+      <c r="H160" t="n">
         <v>116833.3333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6495,21 @@
         <v>0.33694393</v>
       </c>
       <c r="G161" t="n">
+        <v>117666.6666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>116836.6666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6533,21 @@
         <v>14.64646464</v>
       </c>
       <c r="G162" t="n">
+        <v>117813.3333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>116845</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6571,21 @@
         <v>6.00713939</v>
       </c>
       <c r="G163" t="n">
+        <v>117953.3333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>116856.6666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6609,21 @@
         <v>22.2813</v>
       </c>
       <c r="G164" t="n">
+        <v>118153.3333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>116885</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6647,21 @@
         <v>0.1022</v>
       </c>
       <c r="G165" t="n">
+        <v>118353.3333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>116918.3333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6685,21 @@
         <v>2.373</v>
       </c>
       <c r="G166" t="n">
+        <v>118493.3333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>116933.3333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6723,21 @@
         <v>0.6103</v>
       </c>
       <c r="G167" t="n">
+        <v>118700</v>
+      </c>
+      <c r="H167" t="n">
         <v>116960</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6761,21 @@
         <v>16.5466</v>
       </c>
       <c r="G168" t="n">
+        <v>118873.3333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>116986.6666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +6799,21 @@
         <v>51.45674728</v>
       </c>
       <c r="G169" t="n">
+        <v>119046.6666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>117018.3333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +6837,21 @@
         <v>7</v>
       </c>
       <c r="G170" t="n">
+        <v>119073.3333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>117016.6666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +6875,21 @@
         <v>6</v>
       </c>
       <c r="G171" t="n">
+        <v>118980</v>
+      </c>
+      <c r="H171" t="n">
         <v>117008.3333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +6913,21 @@
         <v>2.1354</v>
       </c>
       <c r="G172" t="n">
+        <v>118953.3333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>117018.3333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +6951,21 @@
         <v>7</v>
       </c>
       <c r="G173" t="n">
+        <v>118880</v>
+      </c>
+      <c r="H173" t="n">
         <v>117023.3333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +6989,21 @@
         <v>22.0747</v>
       </c>
       <c r="G174" t="n">
+        <v>118873.3333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>117043.3333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7027,21 @@
         <v>72.36369999999999</v>
       </c>
       <c r="G175" t="n">
+        <v>118906.6666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>117088.3333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7065,21 @@
         <v>5.6088</v>
       </c>
       <c r="G176" t="n">
+        <v>118860</v>
+      </c>
+      <c r="H176" t="n">
         <v>117108.3333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7103,21 @@
         <v>28.2891</v>
       </c>
       <c r="G177" t="n">
+        <v>118806.6666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>117141.6666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7141,21 @@
         <v>8.305400000000001</v>
       </c>
       <c r="G178" t="n">
+        <v>118733.3333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>117163.3333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7179,21 @@
         <v>0.51</v>
       </c>
       <c r="G179" t="n">
+        <v>118606.6666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>117195</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7217,21 @@
         <v>3.1837</v>
       </c>
       <c r="G180" t="n">
+        <v>118453.3333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>117233.3333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7255,21 @@
         <v>22.178</v>
       </c>
       <c r="G181" t="n">
+        <v>118313.3333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>117260</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7293,21 @@
         <v>6.7174</v>
       </c>
       <c r="G182" t="n">
+        <v>118166.6666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>117250</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7331,21 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G183" t="n">
+        <v>118046.6666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>117275</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7369,21 @@
         <v>5.8</v>
       </c>
       <c r="G184" t="n">
+        <v>117853.3333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>117293.3333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7407,21 @@
         <v>1.4672</v>
       </c>
       <c r="G185" t="n">
+        <v>117720</v>
+      </c>
+      <c r="H185" t="n">
         <v>117315</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7445,21 @@
         <v>0.79</v>
       </c>
       <c r="G186" t="n">
+        <v>117620</v>
+      </c>
+      <c r="H186" t="n">
         <v>117328.3333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7483,21 @@
         <v>0.1037</v>
       </c>
       <c r="G187" t="n">
+        <v>117513.3333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>117336.6666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7521,21 @@
         <v>0.1158</v>
       </c>
       <c r="G188" t="n">
+        <v>117453.3333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>117356.6666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7559,21 @@
         <v>0.2581</v>
       </c>
       <c r="G189" t="n">
+        <v>117373.3333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>117368.3333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +7597,21 @@
         <v>22.9826</v>
       </c>
       <c r="G190" t="n">
+        <v>117233.3333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>117386.6666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +7635,21 @@
         <v>7.3758</v>
       </c>
       <c r="G191" t="n">
+        <v>117160</v>
+      </c>
+      <c r="H191" t="n">
         <v>117391.6666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +7673,21 @@
         <v>1.0937</v>
       </c>
       <c r="G192" t="n">
+        <v>117073.3333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>117400</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +7711,21 @@
         <v>7.7513</v>
       </c>
       <c r="G193" t="n">
+        <v>116973.3333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>117403.3333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +7749,21 @@
         <v>5</v>
       </c>
       <c r="G194" t="n">
+        <v>116886.6666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>117401.6666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +7787,25 @@
         <v>2.3152</v>
       </c>
       <c r="G195" t="n">
+        <v>116806.6666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>117405</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>116300</v>
+      </c>
+      <c r="L195" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +7829,29 @@
         <v>9.6</v>
       </c>
       <c r="G196" t="n">
+        <v>116733.3333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>117396.6666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L196" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +7875,29 @@
         <v>7</v>
       </c>
       <c r="G197" t="n">
+        <v>116653.3333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>117391.6666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>115500</v>
+      </c>
+      <c r="L197" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +7921,29 @@
         <v>28.1183</v>
       </c>
       <c r="G198" t="n">
+        <v>116533.3333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>117386.6666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>116000</v>
+      </c>
+      <c r="L198" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +7967,29 @@
         <v>6.3157</v>
       </c>
       <c r="G199" t="n">
+        <v>116533.3333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>117405</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>115800</v>
+      </c>
+      <c r="L199" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8013,29 @@
         <v>1.1452</v>
       </c>
       <c r="G200" t="n">
+        <v>116606.6666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>117433.3333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>117000</v>
+      </c>
+      <c r="L200" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8059,27 @@
         <v>0.8548</v>
       </c>
       <c r="G201" t="n">
+        <v>116673.3333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>117483.3333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8103,27 @@
         <v>1.6626</v>
       </c>
       <c r="G202" t="n">
+        <v>116746.6666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>117530</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8147,27 @@
         <v>0.0264</v>
       </c>
       <c r="G203" t="n">
+        <v>116860</v>
+      </c>
+      <c r="H203" t="n">
         <v>117588.3333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8191,27 @@
         <v>20.6726</v>
       </c>
       <c r="G204" t="n">
+        <v>116933.3333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>117633.3333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8235,27 @@
         <v>12.9634</v>
       </c>
       <c r="G205" t="n">
+        <v>117006.6666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>117656.6666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8279,27 @@
         <v>0.7389</v>
       </c>
       <c r="G206" t="n">
+        <v>117040</v>
+      </c>
+      <c r="H206" t="n">
         <v>117681.6666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8323,27 @@
         <v>4.4796</v>
       </c>
       <c r="G207" t="n">
+        <v>117086.6666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>117695</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8367,27 @@
         <v>1.4368</v>
       </c>
       <c r="G208" t="n">
+        <v>117180</v>
+      </c>
+      <c r="H208" t="n">
         <v>117710</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8411,27 @@
         <v>2.4713</v>
       </c>
       <c r="G209" t="n">
+        <v>117246.6666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>117723.3333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8455,27 @@
         <v>7</v>
       </c>
       <c r="G210" t="n">
+        <v>117280</v>
+      </c>
+      <c r="H210" t="n">
         <v>117723.3333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,18 +8499,27 @@
         <v>0.005</v>
       </c>
       <c r="G211" t="n">
+        <v>117433.3333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>117743.3333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,18 +8543,27 @@
         <v>0.01</v>
       </c>
       <c r="G212" t="n">
+        <v>117540</v>
+      </c>
+      <c r="H212" t="n">
         <v>117765</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7851,18 +8587,27 @@
         <v>0.1465</v>
       </c>
       <c r="G213" t="n">
+        <v>117640</v>
+      </c>
+      <c r="H213" t="n">
         <v>117773.3333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,18 +8631,27 @@
         <v>0.1904</v>
       </c>
       <c r="G214" t="n">
+        <v>117660</v>
+      </c>
+      <c r="H214" t="n">
         <v>117773.3333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7921,18 +8675,27 @@
         <v>60.8992</v>
       </c>
       <c r="G215" t="n">
+        <v>117646.6666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>117761.6666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7956,18 +8719,27 @@
         <v>5.053</v>
       </c>
       <c r="G216" t="n">
+        <v>117633.3333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>117726.6666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,18 +8763,27 @@
         <v>8.6</v>
       </c>
       <c r="G217" t="n">
+        <v>117620</v>
+      </c>
+      <c r="H217" t="n">
         <v>117708.3333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,18 +8807,27 @@
         <v>14.8094</v>
       </c>
       <c r="G218" t="n">
+        <v>117560</v>
+      </c>
+      <c r="H218" t="n">
         <v>117688.3333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,18 +8851,27 @@
         <v>5.7499</v>
       </c>
       <c r="G219" t="n">
+        <v>117526.6666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>117676.6666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,18 +8895,27 @@
         <v>3.84</v>
       </c>
       <c r="G220" t="n">
+        <v>117520</v>
+      </c>
+      <c r="H220" t="n">
         <v>117666.6666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8131,18 +8939,27 @@
         <v>6</v>
       </c>
       <c r="G221" t="n">
+        <v>117526.6666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>117646.6666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8166,18 +8983,27 @@
         <v>21.4761</v>
       </c>
       <c r="G222" t="n">
+        <v>117533.3333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>117625</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8201,18 +9027,27 @@
         <v>0.456</v>
       </c>
       <c r="G223" t="n">
+        <v>117526.6666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>117603.3333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8236,18 +9071,27 @@
         <v>11.2085</v>
       </c>
       <c r="G224" t="n">
+        <v>117540</v>
+      </c>
+      <c r="H224" t="n">
         <v>117570</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8271,18 +9115,27 @@
         <v>10.9592</v>
       </c>
       <c r="G225" t="n">
+        <v>117586.6666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>117531.6666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8306,18 +9159,27 @@
         <v>12.306</v>
       </c>
       <c r="G226" t="n">
+        <v>117606.6666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>117521.6666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8341,18 +9203,27 @@
         <v>8.4795</v>
       </c>
       <c r="G227" t="n">
+        <v>117620</v>
+      </c>
+      <c r="H227" t="n">
         <v>117495</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8376,18 +9247,27 @@
         <v>8.109</v>
       </c>
       <c r="G228" t="n">
+        <v>117673.3333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>117473.3333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8411,18 +9291,27 @@
         <v>1.6878</v>
       </c>
       <c r="G229" t="n">
+        <v>117733.3333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>117445</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,18 +9335,27 @@
         <v>6.0879</v>
       </c>
       <c r="G230" t="n">
+        <v>117700</v>
+      </c>
+      <c r="H230" t="n">
         <v>117418.3333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8481,18 +9379,27 @@
         <v>8.109</v>
       </c>
       <c r="G231" t="n">
+        <v>117626.6666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>117388.3333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8516,18 +9423,27 @@
         <v>13.4538</v>
       </c>
       <c r="G232" t="n">
+        <v>117506.6666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>117346.6666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,18 +9467,29 @@
         <v>0.2794</v>
       </c>
       <c r="G233" t="n">
+        <v>117400</v>
+      </c>
+      <c r="H233" t="n">
         <v>117318.3333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L233" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8586,18 +9513,29 @@
         <v>4.1254</v>
       </c>
       <c r="G234" t="n">
+        <v>117300</v>
+      </c>
+      <c r="H234" t="n">
         <v>117283.3333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>116000</v>
+      </c>
+      <c r="L234" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,18 +9559,29 @@
         <v>0.7000999999999999</v>
       </c>
       <c r="G235" t="n">
+        <v>117213.3333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>117243.3333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L235" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,18 +9605,29 @@
         <v>5.7083</v>
       </c>
       <c r="G236" t="n">
+        <v>117146.6666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>117218.3333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>116400</v>
+      </c>
+      <c r="L236" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8691,18 +9651,29 @@
         <v>19.966</v>
       </c>
       <c r="G237" t="n">
+        <v>117053.3333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>117186.6666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>116600</v>
+      </c>
+      <c r="L237" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8726,18 +9697,29 @@
         <v>7</v>
       </c>
       <c r="G238" t="n">
+        <v>116960</v>
+      </c>
+      <c r="H238" t="n">
         <v>117160</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L238" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,18 +9743,29 @@
         <v>0.0803</v>
       </c>
       <c r="G239" t="n">
+        <v>116866.6666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>117135</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L239" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8796,18 +9789,29 @@
         <v>1.5074</v>
       </c>
       <c r="G240" t="n">
+        <v>116786.6666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>117115</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L240" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8831,18 +9835,29 @@
         <v>4.3916</v>
       </c>
       <c r="G241" t="n">
+        <v>116640</v>
+      </c>
+      <c r="H241" t="n">
         <v>117103.3333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>116100</v>
+      </c>
+      <c r="L241" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,18 +9881,29 @@
         <v>41.7736</v>
       </c>
       <c r="G242" t="n">
+        <v>116386.6666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>117050</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>115900</v>
+      </c>
+      <c r="L242" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8901,18 +9927,27 @@
         <v>77.20829999999999</v>
       </c>
       <c r="G243" t="n">
+        <v>116133.3333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>116995</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8936,18 +9971,27 @@
         <v>16.2828</v>
       </c>
       <c r="G244" t="n">
+        <v>115920</v>
+      </c>
+      <c r="H244" t="n">
         <v>116961.6666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8971,18 +10015,27 @@
         <v>1.4036</v>
       </c>
       <c r="G245" t="n">
+        <v>115786.6666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>116935</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9006,18 +10059,27 @@
         <v>5.9965</v>
       </c>
       <c r="G246" t="n">
+        <v>115660</v>
+      </c>
+      <c r="H246" t="n">
         <v>116898.3333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9041,18 +10103,27 @@
         <v>3.2</v>
       </c>
       <c r="G247" t="n">
+        <v>115660</v>
+      </c>
+      <c r="H247" t="n">
         <v>116883.3333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,18 +10147,27 @@
         <v>0.18</v>
       </c>
       <c r="G248" t="n">
+        <v>115720</v>
+      </c>
+      <c r="H248" t="n">
         <v>116885</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9111,18 +10191,27 @@
         <v>6</v>
       </c>
       <c r="G249" t="n">
+        <v>115813.3333333333</v>
+      </c>
+      <c r="H249" t="n">
         <v>116893.3333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9146,18 +10235,27 @@
         <v>3.7</v>
       </c>
       <c r="G250" t="n">
+        <v>115813.3333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>116888.3333333333</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9181,18 +10279,27 @@
         <v>1.209</v>
       </c>
       <c r="G251" t="n">
+        <v>115833.3333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>116886.6666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,18 +10323,27 @@
         <v>8.458299999999999</v>
       </c>
       <c r="G252" t="n">
+        <v>115866.6666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>116885</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9251,18 +10367,27 @@
         <v>1.209</v>
       </c>
       <c r="G253" t="n">
+        <v>115900</v>
+      </c>
+      <c r="H253" t="n">
         <v>116891.6666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9286,18 +10411,27 @@
         <v>2.5229</v>
       </c>
       <c r="G254" t="n">
+        <v>115933.3333333333</v>
+      </c>
+      <c r="H254" t="n">
         <v>116896.6666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9321,18 +10455,27 @@
         <v>0.7561</v>
       </c>
       <c r="G255" t="n">
+        <v>115980</v>
+      </c>
+      <c r="H255" t="n">
         <v>116908.3333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9356,18 +10499,27 @@
         <v>38.309</v>
       </c>
       <c r="G256" t="n">
+        <v>115980</v>
+      </c>
+      <c r="H256" t="n">
         <v>116915</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9391,18 +10543,27 @@
         <v>0.0147</v>
       </c>
       <c r="G257" t="n">
+        <v>116186.6666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>116933.3333333333</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9426,18 +10587,27 @@
         <v>1</v>
       </c>
       <c r="G258" t="n">
+        <v>116366.6666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>116953.3333333333</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9461,18 +10631,27 @@
         <v>0.01</v>
       </c>
       <c r="G259" t="n">
+        <v>116480</v>
+      </c>
+      <c r="H259" t="n">
         <v>116948.3333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,18 +10675,27 @@
         <v>0.6103</v>
       </c>
       <c r="G260" t="n">
+        <v>116586.6666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>116930</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9531,18 +10719,27 @@
         <v>6.0479</v>
       </c>
       <c r="G261" t="n">
+        <v>116800</v>
+      </c>
+      <c r="H261" t="n">
         <v>116930</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9566,18 +10763,27 @@
         <v>2.3344</v>
       </c>
       <c r="G262" t="n">
+        <v>116926.6666666667</v>
+      </c>
+      <c r="H262" t="n">
         <v>116928.3333333333</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9601,18 +10807,27 @@
         <v>22.1372</v>
       </c>
       <c r="G263" t="n">
+        <v>117120</v>
+      </c>
+      <c r="H263" t="n">
         <v>116950</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9636,18 +10851,27 @@
         <v>15.6376</v>
       </c>
       <c r="G264" t="n">
+        <v>117280</v>
+      </c>
+      <c r="H264" t="n">
         <v>116980</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9671,18 +10895,27 @@
         <v>36.4481</v>
       </c>
       <c r="G265" t="n">
+        <v>117520</v>
+      </c>
+      <c r="H265" t="n">
         <v>117016.6666666667</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9706,18 +10939,27 @@
         <v>0.6703</v>
       </c>
       <c r="G266" t="n">
+        <v>117726.6666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>117058.3333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9741,18 +10983,27 @@
         <v>0.7264</v>
       </c>
       <c r="G267" t="n">
+        <v>117886.6666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>117085</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9776,18 +11027,27 @@
         <v>0.2736</v>
       </c>
       <c r="G268" t="n">
+        <v>118046.6666666667</v>
+      </c>
+      <c r="H268" t="n">
         <v>117108.3333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9811,18 +11071,27 @@
         <v>1.034</v>
       </c>
       <c r="G269" t="n">
+        <v>118206.6666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>117136.6666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9846,18 +11115,27 @@
         <v>1</v>
       </c>
       <c r="G270" t="n">
+        <v>118373.3333333333</v>
+      </c>
+      <c r="H270" t="n">
         <v>117181.6666666667</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9881,18 +11159,27 @@
         <v>51.4568</v>
       </c>
       <c r="G271" t="n">
+        <v>118566.6666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>117198.3333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9916,18 +11203,27 @@
         <v>44.37885272</v>
       </c>
       <c r="G272" t="n">
+        <v>118866.6666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>117265</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9951,18 +11247,27 @@
         <v>18.9024</v>
       </c>
       <c r="G273" t="n">
+        <v>119160</v>
+      </c>
+      <c r="H273" t="n">
         <v>117333.3333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9986,18 +11291,27 @@
         <v>0.04</v>
       </c>
       <c r="G274" t="n">
+        <v>119480</v>
+      </c>
+      <c r="H274" t="n">
         <v>117403.3333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10021,18 +11335,27 @@
         <v>0.5441</v>
       </c>
       <c r="G275" t="n">
+        <v>119786.6666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>117465</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="L275" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10056,18 +11379,467 @@
         <v>40.7377</v>
       </c>
       <c r="G276" t="n">
+        <v>120020</v>
+      </c>
+      <c r="H276" t="n">
         <v>117526.6666666667</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="L276" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>121700</v>
+      </c>
+      <c r="C277" t="n">
+        <v>121500</v>
+      </c>
+      <c r="D277" t="n">
+        <v>121700</v>
+      </c>
+      <c r="E277" t="n">
+        <v>121500</v>
+      </c>
+      <c r="F277" t="n">
+        <v>18.3057</v>
+      </c>
+      <c r="G277" t="n">
+        <v>120253.3333333333</v>
+      </c>
+      <c r="H277" t="n">
+        <v>117586.6666666667</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C278" t="n">
+        <v>120300</v>
+      </c>
+      <c r="D278" t="n">
+        <v>120400</v>
+      </c>
+      <c r="E278" t="n">
+        <v>120300</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10.0874</v>
+      </c>
+      <c r="G278" t="n">
+        <v>120286.6666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>117631.6666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>120600</v>
+      </c>
+      <c r="C279" t="n">
+        <v>121500</v>
+      </c>
+      <c r="D279" t="n">
+        <v>121500</v>
+      </c>
+      <c r="E279" t="n">
+        <v>120600</v>
+      </c>
+      <c r="F279" t="n">
+        <v>49.94893069</v>
+      </c>
+      <c r="G279" t="n">
+        <v>120393.3333333333</v>
+      </c>
+      <c r="H279" t="n">
+        <v>117696.6666666667</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>121000</v>
+      </c>
+      <c r="C280" t="n">
+        <v>120800</v>
+      </c>
+      <c r="D280" t="n">
+        <v>121000</v>
+      </c>
+      <c r="E280" t="n">
+        <v>120800</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3.8753</v>
+      </c>
+      <c r="G280" t="n">
+        <v>120446.6666666667</v>
+      </c>
+      <c r="H280" t="n">
+        <v>117748.3333333333</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>120300</v>
+      </c>
+      <c r="C281" t="n">
+        <v>120300</v>
+      </c>
+      <c r="D281" t="n">
+        <v>120300</v>
+      </c>
+      <c r="E281" t="n">
+        <v>120300</v>
+      </c>
+      <c r="F281" t="n">
+        <v>20.223</v>
+      </c>
+      <c r="G281" t="n">
+        <v>120466.6666666667</v>
+      </c>
+      <c r="H281" t="n">
+        <v>117793.3333333333</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>120100</v>
+      </c>
+      <c r="C282" t="n">
+        <v>119900</v>
+      </c>
+      <c r="D282" t="n">
+        <v>120100</v>
+      </c>
+      <c r="E282" t="n">
+        <v>119900</v>
+      </c>
+      <c r="F282" t="n">
+        <v>9</v>
+      </c>
+      <c r="G282" t="n">
+        <v>120526.6666666667</v>
+      </c>
+      <c r="H282" t="n">
+        <v>117833.3333333333</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C283" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E283" t="n">
+        <v>120000</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>120593.3333333333</v>
+      </c>
+      <c r="H283" t="n">
+        <v>117875</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>120200</v>
+      </c>
+      <c r="C284" t="n">
+        <v>120200</v>
+      </c>
+      <c r="D284" t="n">
+        <v>120200</v>
+      </c>
+      <c r="E284" t="n">
+        <v>120200</v>
+      </c>
+      <c r="F284" t="n">
+        <v>4.8232</v>
+      </c>
+      <c r="G284" t="n">
+        <v>120673.3333333333</v>
+      </c>
+      <c r="H284" t="n">
+        <v>117920</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>120200</v>
+      </c>
+      <c r="C285" t="n">
+        <v>120200</v>
+      </c>
+      <c r="D285" t="n">
+        <v>120200</v>
+      </c>
+      <c r="E285" t="n">
+        <v>120200</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1.7383</v>
+      </c>
+      <c r="G285" t="n">
+        <v>120733.3333333333</v>
+      </c>
+      <c r="H285" t="n">
+        <v>117968.3333333333</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>120700</v>
+      </c>
+      <c r="C286" t="n">
+        <v>120700</v>
+      </c>
+      <c r="D286" t="n">
+        <v>120700</v>
+      </c>
+      <c r="E286" t="n">
+        <v>120700</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>120860</v>
+      </c>
+      <c r="H286" t="n">
+        <v>118011.6666666667</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>116300</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest DASH.xlsx
+++ b/BackTest/2020-01-21 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N344"/>
+  <dimension ref="A1:M344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>114500</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>114000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-23.47932840000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>114000</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,17 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>113600</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +638,21 @@
         <v>-26.36922840000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>113600</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +677,21 @@
         <v>-26.32532840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>113000</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +716,21 @@
         <v>-10.21302840000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>114100</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +755,21 @@
         <v>-12.99442840000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>114600</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,22 +794,21 @@
         <v>-5.917428400000023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>114400</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,22 +833,21 @@
         <v>-11.55182840000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>114800</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,20 +874,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -950,20 +911,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,20 +948,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1028,24 +983,21 @@
         <v>-8.325728400000024</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>113600</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1070,22 +1022,21 @@
         <v>-7.202728400000024</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>114100</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1110,22 +1061,19 @@
         <v>-41.59752840000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1150,22 +1098,19 @@
         <v>-70.52372840000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1192,20 +1137,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1232,20 +1174,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,22 +1209,19 @@
         <v>-83.50942840000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1312,20 +1248,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1352,20 +1285,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1392,20 +1322,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1432,20 +1359,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1470,22 +1394,21 @@
         <v>-89.37722840000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>114500</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1512,20 +1435,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1552,20 +1472,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1590,24 +1507,19 @@
         <v>-86.75312840000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>113900</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1632,24 +1544,19 @@
         <v>-86.75312840000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1674,24 +1581,19 @@
         <v>-98.54482840000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1716,24 +1618,21 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>113900</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1758,24 +1657,21 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>114000</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,24 +1696,21 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>114000</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1842,24 +1735,21 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>114100</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,22 +1774,21 @@
         <v>-92.49292840000003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114100</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1924,22 +1813,21 @@
         <v>-96.74892840000003</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>114500</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1964,24 +1852,21 @@
         <v>-96.40652840000003</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>114300</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2006,24 +1891,21 @@
         <v>-98.40652840000003</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>114400</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2048,24 +1930,21 @@
         <v>-97.60632840000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>114200</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2090,24 +1969,21 @@
         <v>-87.52642840000003</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>114400</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2132,22 +2008,21 @@
         <v>-87.05692840000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116400</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2172,22 +2047,21 @@
         <v>-22.05112840000004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>116900</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2214,20 +2088,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2254,20 +2125,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2292,22 +2160,21 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>117100</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2334,20 +2201,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2372,22 +2236,21 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>118100</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2414,20 +2277,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2452,22 +2312,21 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>118600</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2492,22 +2351,21 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>118900</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2534,20 +2392,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2574,20 +2429,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2614,20 +2466,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2654,20 +2503,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2694,20 +2540,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2734,20 +2577,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,22 +2612,17 @@
         <v>192.8133716</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2812,22 +2647,15 @@
         <v>192.8133716</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2852,22 +2680,15 @@
         <v>199.0276716</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2892,22 +2713,15 @@
         <v>199.0276716</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2932,22 +2746,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2972,22 +2779,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3012,22 +2812,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3052,22 +2845,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3092,20 +2878,15 @@
         <v>209.20424886</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L67" t="n">
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3130,18 +2911,15 @@
         <v>209.20424886</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3166,18 +2944,15 @@
         <v>239.97454886</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3202,18 +2977,15 @@
         <v>215.59967843</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3238,18 +3010,15 @@
         <v>215.59967843</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3274,18 +3043,15 @@
         <v>146.96407843</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3310,18 +3076,15 @@
         <v>147.06417843</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3346,18 +3109,15 @@
         <v>147.06417843</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,18 +3142,15 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3420,16 +3177,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3454,18 +3208,15 @@
         <v>84.92947842999997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3492,16 +3243,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3528,16 +3276,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3564,16 +3309,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3600,16 +3342,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3636,16 +3375,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3672,16 +3408,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3708,16 +3441,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3744,16 +3474,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3780,16 +3507,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3816,16 +3540,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3852,16 +3573,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3888,16 +3606,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3924,16 +3639,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3960,16 +3672,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3996,16 +3705,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4032,16 +3738,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4068,16 +3771,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4104,16 +3804,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4140,16 +3837,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4176,16 +3870,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4212,16 +3903,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4248,16 +3936,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4284,16 +3969,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4320,16 +4002,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4356,16 +4035,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4392,16 +4068,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4428,16 +4101,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4464,16 +4134,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4500,16 +4167,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4536,16 +4200,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4572,16 +4233,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4608,16 +4266,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4644,16 +4299,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4680,16 +4332,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4716,16 +4365,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4750,18 +4396,15 @@
         <v>18.27060233999997</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4786,18 +4429,15 @@
         <v>28.73510233999997</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4822,18 +4462,15 @@
         <v>37.38440233999997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4858,18 +4495,15 @@
         <v>44.21850233999997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,18 +4528,15 @@
         <v>79.47310233999997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4932,16 +4563,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4968,16 +4596,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5004,16 +4629,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5038,18 +4660,15 @@
         <v>85.11660233999997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5074,18 +4693,15 @@
         <v>79.27310233999997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5110,18 +4726,15 @@
         <v>80.03260233999997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5148,16 +4761,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5182,18 +4792,15 @@
         <v>95.50350233999997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5218,18 +4825,15 @@
         <v>95.49930233999997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5254,18 +4858,15 @@
         <v>99.63930233999997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5292,16 +4893,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5326,18 +4924,15 @@
         <v>99.62230233999998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5364,16 +4959,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5398,18 +4990,15 @@
         <v>92.94231283999997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5434,18 +5023,15 @@
         <v>92.97934616999997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5470,18 +5056,15 @@
         <v>89.49534616999998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5508,16 +5091,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5544,16 +5124,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5580,16 +5157,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5616,16 +5190,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5652,16 +5223,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5688,16 +5256,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5724,16 +5289,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5760,16 +5322,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5794,18 +5353,15 @@
         <v>108.73324617</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5830,18 +5386,15 @@
         <v>109.13314617</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5868,16 +5421,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5904,16 +5454,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5940,16 +5487,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5976,16 +5520,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6012,16 +5553,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6048,16 +5586,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6082,18 +5617,15 @@
         <v>167.2802436</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6118,18 +5650,15 @@
         <v>167.2802436</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6154,18 +5683,15 @@
         <v>151.2367436</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6192,16 +5718,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6228,16 +5751,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6264,16 +5784,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6300,16 +5817,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6336,16 +5850,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6372,16 +5883,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6408,16 +5916,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6444,16 +5949,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6480,16 +5982,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6516,16 +6015,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6552,16 +6048,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6588,16 +6081,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6624,16 +6114,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6660,16 +6147,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6696,16 +6180,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6732,16 +6213,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6768,16 +6246,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6804,16 +6279,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6840,16 +6312,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6876,16 +6345,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6912,16 +6378,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6948,16 +6411,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6982,18 +6442,15 @@
         <v>71.16594544000002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7018,18 +6475,15 @@
         <v>85.16594544000002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7054,18 +6508,15 @@
         <v>79.22614544000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7090,18 +6541,15 @@
         <v>68.12614544000002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7126,18 +6574,15 @@
         <v>68.12614544000002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7162,18 +6607,15 @@
         <v>122.28613712</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7198,18 +6640,15 @@
         <v>120.74613712</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7234,18 +6673,15 @@
         <v>117.07743712</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7270,18 +6706,15 @@
         <v>92.42603712</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7306,18 +6739,15 @@
         <v>99.45803712</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7342,18 +6772,15 @@
         <v>104.28131763</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7378,18 +6805,15 @@
         <v>97.23771763000001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7416,16 +6840,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7450,18 +6871,15 @@
         <v>39.33771763000001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7486,18 +6904,15 @@
         <v>39.76625747000001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7522,18 +6937,15 @@
         <v>38.78665747000001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7560,16 +6972,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7596,16 +7005,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7632,16 +7038,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7668,16 +7071,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7704,16 +7104,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7740,16 +7137,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7776,16 +7170,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7812,16 +7203,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7848,16 +7236,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7882,18 +7267,15 @@
         <v>22.43075747000001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7920,16 +7302,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7956,16 +7335,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7992,16 +7368,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8028,16 +7401,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8064,16 +7434,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8100,16 +7467,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8136,16 +7500,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8172,16 +7533,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8208,16 +7566,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8244,16 +7599,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8280,16 +7632,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8316,16 +7665,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8352,16 +7698,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8388,16 +7731,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8424,16 +7764,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8458,18 +7795,15 @@
         <v>-11.93484776999998</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8496,16 +7830,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8530,18 +7861,15 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8568,16 +7896,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8604,16 +7929,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8640,16 +7962,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8676,16 +7995,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8712,16 +8028,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8748,16 +8061,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8784,16 +8094,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8820,16 +8127,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8856,16 +8160,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8892,16 +8193,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8926,18 +8224,15 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8964,16 +8259,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9000,16 +8292,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9036,16 +8325,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9072,16 +8358,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9108,16 +8391,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9144,16 +8424,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9180,16 +8457,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9216,16 +8490,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9252,16 +8523,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9288,16 +8556,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9324,16 +8589,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9360,16 +8622,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9396,16 +8655,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9430,18 +8686,15 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9468,16 +8721,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9504,16 +8754,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9538,18 +8785,15 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9574,18 +8818,15 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9612,16 +8853,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9648,16 +8886,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9682,18 +8917,15 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9720,16 +8952,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9756,16 +8985,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9792,16 +9018,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9826,18 +9049,15 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9862,18 +9082,15 @@
         <v>44.99244343999999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9900,16 +9117,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9936,16 +9150,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9970,18 +9181,15 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10006,18 +9214,15 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10044,16 +9249,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10080,16 +9282,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10114,18 +9313,15 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10152,16 +9348,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10188,16 +9381,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10224,16 +9414,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10260,16 +9447,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10296,16 +9480,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10332,16 +9513,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10368,16 +9546,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10404,16 +9579,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10440,16 +9612,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10476,16 +9645,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10512,16 +9678,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10548,16 +9711,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10584,16 +9744,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10620,16 +9777,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10656,16 +9810,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10692,16 +9843,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10728,16 +9876,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10764,16 +9909,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10800,16 +9942,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10836,16 +9975,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10872,16 +10008,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10908,16 +10041,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10944,16 +10074,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10980,16 +10107,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11016,16 +10140,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11052,16 +10173,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11088,16 +10206,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11124,16 +10239,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11160,16 +10272,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11194,22 +10303,15 @@
         <v>-11.10335656000001</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>116000</v>
-      </c>
-      <c r="K292" t="n">
-        <v>116000</v>
-      </c>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11234,26 +10336,15 @@
         <v>-10.40325656000001</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="n">
-        <v>116100</v>
-      </c>
-      <c r="K293" t="n">
-        <v>116000</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11280,24 +10371,13 @@
       <c r="H294" t="n">
         <v>1</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="n">
-        <v>116400</v>
-      </c>
-      <c r="K294" t="n">
-        <v>116000</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11324,16 +10404,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11358,24 +10435,15 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11400,24 +10468,15 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11442,24 +10501,15 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11484,24 +10534,15 @@
         <v>-29.05255656000001</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="n">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11526,24 +10567,15 @@
         <v>-70.82615656000002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="n">
-        <v>115900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11568,24 +10600,15 @@
         <v>6.382143439999979</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="n">
-        <v>114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11610,24 +10633,15 @@
         <v>22.66494343999998</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="n">
-        <v>114300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11654,20 +10668,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11692,24 +10699,15 @@
         <v>18.07204343999998</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="n">
-        <v>115300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11734,24 +10732,15 @@
         <v>21.27204343999998</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="n">
-        <v>114800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11778,20 +10767,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11818,20 +10800,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11858,20 +10833,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11898,20 +10866,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11938,20 +10899,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11978,20 +10932,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12018,20 +10965,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12058,20 +10998,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12098,20 +11031,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12138,20 +11064,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12178,20 +11097,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12218,20 +11130,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12258,20 +11163,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12298,20 +11196,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12338,20 +11229,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12378,20 +11262,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12418,20 +11295,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12458,20 +11328,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12498,20 +11361,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12538,20 +11394,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12578,20 +11427,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12618,20 +11460,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12658,20 +11493,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12698,20 +11526,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12738,20 +11559,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12778,20 +11592,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12816,22 +11623,15 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12856,22 +11656,15 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12896,22 +11689,15 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12938,20 +11724,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12976,22 +11755,15 @@
         <v>23.08149615999998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13016,22 +11788,15 @@
         <v>73.03042684999997</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13058,20 +11823,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13098,20 +11856,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13138,20 +11889,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13178,20 +11922,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13218,20 +11955,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13258,20 +11988,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13298,22 +12021,15 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest DASH.xlsx
+++ b/BackTest/2020-01-21 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>114500</v>
@@ -523,7 +523,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>114000</v>
@@ -562,11 +562,9 @@
         <v>-23.47932840000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -603,7 +601,9 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>113600</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,11 +638,9 @@
         <v>-26.36922840000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>113600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,11 +675,9 @@
         <v>-26.32532840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>113000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -716,11 +712,9 @@
         <v>-10.21302840000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>114100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,11 +749,9 @@
         <v>-12.99442840000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>114600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,11 +786,9 @@
         <v>-5.917428400000023</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>114400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -833,11 +823,9 @@
         <v>-11.55182840000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>114800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -983,11 +971,9 @@
         <v>-8.325728400000024</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>113600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1022,11 +1008,9 @@
         <v>-7.202728400000024</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1061,7 +1045,7 @@
         <v>-41.59752840000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1098,7 +1082,7 @@
         <v>-70.52372840000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1209,7 +1193,7 @@
         <v>-83.50942840000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1394,11 +1378,9 @@
         <v>-89.37722840000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>114500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1618,11 +1600,9 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>113900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1657,11 +1637,9 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1696,11 +1674,9 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1735,11 +1711,9 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>114100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1774,11 +1748,9 @@
         <v>-92.49292840000003</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>114100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1813,11 +1785,9 @@
         <v>-96.74892840000003</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>114500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1852,11 +1822,9 @@
         <v>-96.40652840000003</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>114300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1891,11 +1859,9 @@
         <v>-98.40652840000003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>114400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,11 +1896,9 @@
         <v>-97.60632840000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>114200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1969,11 +1933,9 @@
         <v>-87.52642840000003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>114400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2008,11 +1970,9 @@
         <v>-87.05692840000003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>116400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2047,11 +2007,9 @@
         <v>-22.05112840000004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>116900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2160,11 +2118,9 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>117100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2236,11 +2192,9 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>118100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2312,11 +2266,9 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>118600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2351,11 +2303,9 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>118900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2612,16 +2562,18 @@
         <v>192.8133716</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2647,11 +2599,15 @@
         <v>192.8133716</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2680,11 +2636,15 @@
         <v>199.0276716</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2673,15 @@
         <v>199.0276716</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2710,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +2747,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2784,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2845,11 +2821,15 @@
         <v>208.05324886</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2858,15 @@
         <v>209.20424886</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2911,11 +2895,15 @@
         <v>209.20424886</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2932,15 @@
         <v>239.97454886</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2969,15 @@
         <v>215.59967843</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3006,15 @@
         <v>215.59967843</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3043,15 @@
         <v>146.96407843</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3080,16 @@
         <v>147.06417843</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3109,7 +3115,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3142,7 +3148,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3208,7 +3214,7 @@
         <v>84.92947842999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3241,7 +3247,7 @@
         <v>87.23557842999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3274,7 +3280,7 @@
         <v>97.31517842999997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3307,7 +3313,7 @@
         <v>99.60290233999997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3340,7 +3346,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3373,7 +3379,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3406,7 +3412,7 @@
         <v>94.57080233999997</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3439,7 +3445,7 @@
         <v>61.50580233999997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3472,7 +3478,7 @@
         <v>63.79350233999997</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3505,7 +3511,7 @@
         <v>64.13260233999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3538,7 +3544,7 @@
         <v>18.28560233999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3571,7 +3577,7 @@
         <v>4.109502339999976</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3604,7 +3610,7 @@
         <v>13.66280233999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3637,7 +3643,7 @@
         <v>17.09570233999997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3670,7 +3676,7 @@
         <v>11.73510233999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3703,7 +3709,7 @@
         <v>20.01240233999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3736,7 +3742,7 @@
         <v>24.81240233999997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3769,7 +3775,7 @@
         <v>20.87840233999997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3802,7 +3808,7 @@
         <v>22.05170233999997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3835,7 +3841,7 @@
         <v>26.25880233999997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3868,7 +3874,7 @@
         <v>26.11230233999997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3901,7 +3907,7 @@
         <v>14.07470233999998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3934,7 +3940,7 @@
         <v>18.53420233999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3967,7 +3973,7 @@
         <v>9.670502339999976</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4000,7 +4006,7 @@
         <v>9.889802339999976</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4033,7 +4039,7 @@
         <v>11.88980233999998</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4066,7 +4072,7 @@
         <v>41.45490233999998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4099,7 +4105,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4132,7 +4138,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4165,7 +4171,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4198,7 +4204,7 @@
         <v>54.71280233999997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4231,7 +4237,7 @@
         <v>54.61000233999997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4264,7 +4270,7 @@
         <v>55.87580233999997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4297,7 +4303,7 @@
         <v>54.37580233999997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4330,7 +4336,7 @@
         <v>61.00800233999997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4396,7 +4402,7 @@
         <v>18.27060233999997</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4429,7 +4435,7 @@
         <v>28.73510233999997</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4462,7 +4468,7 @@
         <v>37.38440233999997</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4495,7 +4501,7 @@
         <v>44.21850233999997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4528,7 +4534,7 @@
         <v>79.47310233999997</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4660,7 +4666,7 @@
         <v>85.11660233999997</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4693,7 +4699,7 @@
         <v>79.27310233999997</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4726,7 +4732,7 @@
         <v>80.03260233999997</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4792,7 +4798,7 @@
         <v>95.50350233999997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4825,7 +4831,7 @@
         <v>95.49930233999997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4858,7 +4864,7 @@
         <v>99.63930233999997</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4924,7 +4930,7 @@
         <v>99.62230233999998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4990,7 +4996,7 @@
         <v>92.94231283999997</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5023,7 +5029,7 @@
         <v>92.97934616999997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5056,7 +5062,7 @@
         <v>89.49534616999998</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5353,7 +5359,7 @@
         <v>108.73324617</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5386,7 +5392,7 @@
         <v>109.13314617</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5617,7 +5623,7 @@
         <v>167.2802436</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5650,7 +5656,7 @@
         <v>167.2802436</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5683,7 +5689,7 @@
         <v>151.2367436</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5749,7 +5755,7 @@
         <v>159.2868436</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5782,7 +5788,7 @@
         <v>159.25904544</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5848,7 +5854,7 @@
         <v>151.20894544</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5881,7 +5887,7 @@
         <v>144.20894544</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5980,7 +5986,7 @@
         <v>143.08874544</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6013,7 +6019,7 @@
         <v>136.29704544</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6046,7 +6052,7 @@
         <v>114.24444544</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6079,7 +6085,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6112,7 +6118,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6145,7 +6151,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6178,7 +6184,7 @@
         <v>116.97794544</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6211,7 +6217,7 @@
         <v>130.97794544</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6244,7 +6250,7 @@
         <v>130.97794544</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6277,7 +6283,7 @@
         <v>126.29614544</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6310,7 +6316,7 @@
         <v>123.48104544</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6343,7 +6349,7 @@
         <v>90.94104544000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6376,7 +6382,7 @@
         <v>86.44874544000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6409,7 +6415,7 @@
         <v>87.73784544000002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6442,7 +6448,7 @@
         <v>71.16594544000002</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6475,7 +6481,7 @@
         <v>85.16594544000002</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6508,7 +6514,7 @@
         <v>79.22614544000001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6541,7 +6547,7 @@
         <v>68.12614544000002</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6574,7 +6580,7 @@
         <v>68.12614544000002</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6607,7 +6613,7 @@
         <v>122.28613712</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6640,7 +6646,7 @@
         <v>120.74613712</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6673,7 +6679,7 @@
         <v>117.07743712</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6706,7 +6712,7 @@
         <v>92.42603712</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6739,7 +6745,7 @@
         <v>99.45803712</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6772,7 +6778,7 @@
         <v>104.28131763</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6805,7 +6811,7 @@
         <v>97.23771763000001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6871,7 +6877,7 @@
         <v>39.33771763000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6904,7 +6910,7 @@
         <v>39.76625747000001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6937,7 +6943,7 @@
         <v>38.78665747000001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7267,7 +7273,7 @@
         <v>22.43075747000001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7795,7 +7801,7 @@
         <v>-11.93484776999998</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7861,7 +7867,7 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8224,7 +8230,7 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8686,7 +8692,7 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8785,7 +8791,7 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8818,7 +8824,7 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8917,7 +8923,7 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9049,7 +9055,7 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9082,7 +9088,7 @@
         <v>44.99244343999999</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9181,7 +9187,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9214,7 +9220,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9313,7 +9319,7 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10369,7 +10375,7 @@
         <v>-4.694956560000013</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11623,7 +11629,7 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11656,7 +11662,7 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11689,7 +11695,7 @@
         <v>33.16889615999998</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11755,7 +11761,7 @@
         <v>23.08149615999998</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11788,7 +11794,7 @@
         <v>73.03042684999997</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12030,6 +12036,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest DASH.xlsx
+++ b/BackTest/2020-01-21 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,1205 +484,1095 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-23.41602840000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>113600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>113600</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113600</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113600</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-23.47932840000002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>113200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>113600</v>
+      </c>
+      <c r="D6" t="n">
+        <v>113600</v>
+      </c>
+      <c r="E6" t="n">
+        <v>113200</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.6384</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-23.47932840000002</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>113000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>113000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>113000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.8899</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-26.36922840000003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>114100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>114100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-26.32532840000002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>114700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114600</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114700</v>
+      </c>
+      <c r="E9" t="n">
+        <v>114600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.1123</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-10.21302840000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>115400</v>
+      </c>
+      <c r="C10" t="n">
+        <v>114400</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>114400</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.7814</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-12.99442840000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>114400</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114800</v>
+      </c>
+      <c r="D11" t="n">
+        <v>115400</v>
+      </c>
+      <c r="E11" t="n">
+        <v>114400</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.077</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-5.917428400000023</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>114100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>114100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>114100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.6344</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-11.55182840000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>114700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>114700</v>
+      </c>
+      <c r="D13" t="n">
+        <v>114700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>114700</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-11.46462840000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>113900</v>
+      </c>
+      <c r="C14" t="n">
+        <v>113900</v>
+      </c>
+      <c r="D14" t="n">
+        <v>113900</v>
+      </c>
+      <c r="E14" t="n">
+        <v>113900</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.4538</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-24.91842840000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>113600</v>
+      </c>
+      <c r="C15" t="n">
+        <v>113600</v>
+      </c>
+      <c r="D15" t="n">
+        <v>113600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>113600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-26.71842840000003</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>113600</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>114100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>113600</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.3927</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-8.325728400000024</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>114200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>114200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>114200</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-7.202728400000024</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>114200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>113600</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34.3948</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-41.59752840000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>113700</v>
+      </c>
+      <c r="C19" t="n">
+        <v>113700</v>
+      </c>
+      <c r="D19" t="n">
+        <v>113700</v>
+      </c>
+      <c r="E19" t="n">
+        <v>113700</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.9262</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-70.52372840000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>114300</v>
+      </c>
+      <c r="C20" t="n">
+        <v>114300</v>
+      </c>
+      <c r="D20" t="n">
+        <v>114300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>114300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7668</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-69.75692840000002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>114900</v>
+      </c>
+      <c r="C21" t="n">
+        <v>114900</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114900</v>
+      </c>
+      <c r="E21" t="n">
+        <v>114900</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4482</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-69.30872840000002</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>114400</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114700</v>
+      </c>
+      <c r="D22" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>114400</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.2007</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-83.50942840000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>114600</v>
+      </c>
+      <c r="C23" t="n">
+        <v>114600</v>
+      </c>
+      <c r="D23" t="n">
+        <v>114600</v>
+      </c>
+      <c r="E23" t="n">
+        <v>114600</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-83.53382840000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>114600</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114600</v>
+      </c>
+      <c r="D24" t="n">
+        <v>114600</v>
+      </c>
+      <c r="E24" t="n">
+        <v>114600</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-83.53382840000002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>114700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>114700</v>
+      </c>
+      <c r="D25" t="n">
+        <v>114700</v>
+      </c>
+      <c r="E25" t="n">
+        <v>114700</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-83.44762840000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>114500</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C26" t="n">
+        <v>114500</v>
+      </c>
+      <c r="D26" t="n">
+        <v>114500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>114500</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.9138</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-89.36142840000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>114400</v>
+      </c>
+      <c r="C27" t="n">
+        <v>114400</v>
+      </c>
+      <c r="D27" t="n">
+        <v>114400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>114400</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-89.37722840000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>114300</v>
+      </c>
+      <c r="C28" t="n">
+        <v>114300</v>
+      </c>
+      <c r="D28" t="n">
+        <v>114300</v>
+      </c>
+      <c r="E28" t="n">
+        <v>114300</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-89.39872840000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>113900</v>
+      </c>
+      <c r="C29" t="n">
+        <v>113900</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113900</v>
+      </c>
+      <c r="E29" t="n">
+        <v>113900</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-89.45312840000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-86.75312840000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-86.75312840000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>113900</v>
+      </c>
+      <c r="C32" t="n">
+        <v>113900</v>
+      </c>
+      <c r="D32" t="n">
+        <v>113900</v>
+      </c>
+      <c r="E32" t="n">
+        <v>113900</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.7917</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-98.54482840000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>114000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>114000</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.4494</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-95.09542840000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>113900</v>
+      </c>
+      <c r="J33" t="n">
+        <v>114000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.068</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-95.09542840000002</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>114000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>114100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>114000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.5937</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-92.50172840000002</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>114000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>114000</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>114000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>114000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09470000000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-23.41602840000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>114000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>113600</v>
-      </c>
-      <c r="C5" t="n">
-        <v>113600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>113600</v>
-      </c>
-      <c r="E5" t="n">
-        <v>113600</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0633</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-23.47932840000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>113200</v>
-      </c>
-      <c r="C6" t="n">
-        <v>113600</v>
-      </c>
-      <c r="D6" t="n">
-        <v>113600</v>
-      </c>
-      <c r="E6" t="n">
-        <v>113200</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.6384</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-23.47932840000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>113600</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>113000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>113000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>113000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>113000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.8899</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-26.36922840000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>114100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>114100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>114100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>114100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0439</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-26.32532840000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>114700</v>
-      </c>
-      <c r="C9" t="n">
-        <v>114600</v>
-      </c>
-      <c r="D9" t="n">
-        <v>114700</v>
-      </c>
-      <c r="E9" t="n">
-        <v>114600</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16.1123</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-10.21302840000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>115400</v>
-      </c>
-      <c r="C10" t="n">
-        <v>114400</v>
-      </c>
-      <c r="D10" t="n">
-        <v>115400</v>
-      </c>
-      <c r="E10" t="n">
-        <v>114400</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.7814</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-12.99442840000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>114400</v>
-      </c>
-      <c r="C11" t="n">
-        <v>114800</v>
-      </c>
-      <c r="D11" t="n">
-        <v>115400</v>
-      </c>
-      <c r="E11" t="n">
-        <v>114400</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.077</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-5.917428400000023</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>114100</v>
-      </c>
-      <c r="C12" t="n">
-        <v>114100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>114100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>114100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.6344</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-11.55182840000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>114700</v>
-      </c>
-      <c r="C13" t="n">
-        <v>114700</v>
-      </c>
-      <c r="D13" t="n">
-        <v>114700</v>
-      </c>
-      <c r="E13" t="n">
-        <v>114700</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0872</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-11.46462840000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>113900</v>
-      </c>
-      <c r="C14" t="n">
-        <v>113900</v>
-      </c>
-      <c r="D14" t="n">
-        <v>113900</v>
-      </c>
-      <c r="E14" t="n">
-        <v>113900</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13.4538</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-24.91842840000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>113600</v>
-      </c>
-      <c r="C15" t="n">
-        <v>113600</v>
-      </c>
-      <c r="D15" t="n">
-        <v>113600</v>
-      </c>
-      <c r="E15" t="n">
-        <v>113600</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-26.71842840000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>113600</v>
-      </c>
-      <c r="C16" t="n">
-        <v>114100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>114100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>113600</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18.3927</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-8.325728400000024</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>114200</v>
-      </c>
-      <c r="C17" t="n">
-        <v>114200</v>
-      </c>
-      <c r="D17" t="n">
-        <v>114200</v>
-      </c>
-      <c r="E17" t="n">
-        <v>114200</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.123</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-7.202728400000024</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>114200</v>
-      </c>
-      <c r="C18" t="n">
-        <v>114100</v>
-      </c>
-      <c r="D18" t="n">
-        <v>114200</v>
-      </c>
-      <c r="E18" t="n">
-        <v>113600</v>
-      </c>
-      <c r="F18" t="n">
-        <v>34.3948</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-41.59752840000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>113700</v>
-      </c>
-      <c r="C19" t="n">
-        <v>113700</v>
-      </c>
-      <c r="D19" t="n">
-        <v>113700</v>
-      </c>
-      <c r="E19" t="n">
-        <v>113700</v>
-      </c>
-      <c r="F19" t="n">
-        <v>28.9262</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-70.52372840000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>114300</v>
-      </c>
-      <c r="C20" t="n">
-        <v>114300</v>
-      </c>
-      <c r="D20" t="n">
-        <v>114300</v>
-      </c>
-      <c r="E20" t="n">
-        <v>114300</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7668</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-69.75692840000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>114900</v>
-      </c>
-      <c r="C21" t="n">
-        <v>114900</v>
-      </c>
-      <c r="D21" t="n">
-        <v>114900</v>
-      </c>
-      <c r="E21" t="n">
-        <v>114900</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4482</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-69.30872840000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>114400</v>
-      </c>
-      <c r="C22" t="n">
-        <v>114700</v>
-      </c>
-      <c r="D22" t="n">
-        <v>115000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>114400</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14.2007</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-83.50942840000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>114600</v>
-      </c>
-      <c r="C23" t="n">
-        <v>114600</v>
-      </c>
-      <c r="D23" t="n">
-        <v>114600</v>
-      </c>
-      <c r="E23" t="n">
-        <v>114600</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-83.53382840000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>114600</v>
-      </c>
-      <c r="C24" t="n">
-        <v>114600</v>
-      </c>
-      <c r="D24" t="n">
-        <v>114600</v>
-      </c>
-      <c r="E24" t="n">
-        <v>114600</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.043</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-83.53382840000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>114700</v>
-      </c>
-      <c r="C25" t="n">
-        <v>114700</v>
-      </c>
-      <c r="D25" t="n">
-        <v>114700</v>
-      </c>
-      <c r="E25" t="n">
-        <v>114700</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0862</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-83.44762840000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>114500</v>
-      </c>
-      <c r="C26" t="n">
-        <v>114500</v>
-      </c>
-      <c r="D26" t="n">
-        <v>114500</v>
-      </c>
-      <c r="E26" t="n">
-        <v>114500</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5.9138</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-89.36142840000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>114400</v>
-      </c>
-      <c r="C27" t="n">
-        <v>114400</v>
-      </c>
-      <c r="D27" t="n">
-        <v>114400</v>
-      </c>
-      <c r="E27" t="n">
-        <v>114400</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-89.37722840000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>114300</v>
-      </c>
-      <c r="C28" t="n">
-        <v>114300</v>
-      </c>
-      <c r="D28" t="n">
-        <v>114300</v>
-      </c>
-      <c r="E28" t="n">
-        <v>114300</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-89.39872840000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>113900</v>
-      </c>
-      <c r="C29" t="n">
-        <v>113900</v>
-      </c>
-      <c r="D29" t="n">
-        <v>113900</v>
-      </c>
-      <c r="E29" t="n">
-        <v>113900</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0544</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-89.45312840000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C30" t="n">
-        <v>114000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>114000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-86.75312840000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>114000</v>
-      </c>
-      <c r="D31" t="n">
-        <v>114000</v>
-      </c>
-      <c r="E31" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-86.75312840000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>113900</v>
-      </c>
-      <c r="C32" t="n">
-        <v>113900</v>
-      </c>
-      <c r="D32" t="n">
-        <v>113900</v>
-      </c>
-      <c r="E32" t="n">
-        <v>113900</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11.7917</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-98.54482840000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C33" t="n">
-        <v>114000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>114000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.4494</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-95.09542840000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>114000</v>
-      </c>
-      <c r="D34" t="n">
-        <v>114000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8.068</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-95.09542840000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C35" t="n">
-        <v>114100</v>
-      </c>
-      <c r="D35" t="n">
-        <v>114100</v>
-      </c>
-      <c r="E35" t="n">
-        <v>114000</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.5937</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-92.50172840000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,10 +1601,14 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>114100</v>
+      </c>
+      <c r="J36" t="n">
+        <v>114000</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1748,10 +1642,14 @@
         <v>-92.49292840000003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>114100</v>
+      </c>
+      <c r="J37" t="n">
+        <v>114000</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,7 +1686,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>114000</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1725,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>114000</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,10 +1761,14 @@
         <v>-98.40652840000003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>114400</v>
+      </c>
+      <c r="J40" t="n">
+        <v>114000</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1896,10 +1802,14 @@
         <v>-97.60632840000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>114200</v>
+      </c>
+      <c r="J41" t="n">
+        <v>114000</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,10 +1843,14 @@
         <v>-87.52642840000003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>114400</v>
+      </c>
+      <c r="J42" t="n">
+        <v>114000</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,10 +1884,14 @@
         <v>-87.05692840000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>116400</v>
+      </c>
+      <c r="J43" t="n">
+        <v>114000</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,7 +1928,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>114000</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,10 +1964,12 @@
         <v>-55.61352840000004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>114000</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,17 +2003,19 @@
         <v>-44.80742840000003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>114000</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>1.02219298245614</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2118,15 +2042,11 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,15 +2075,11 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,15 +2108,11 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,15 +2141,11 @@
         <v>16.96177159999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2174,11 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,15 +2207,11 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,15 +2240,11 @@
         <v>133.7144716</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,15 +2273,11 @@
         <v>127.5572716</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,15 +2306,11 @@
         <v>107.7962716</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2343,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2376,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2409,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2442,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2475,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2508,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2541,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2574,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2607,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2640,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2673,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2706,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2739,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2772,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2805,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2838,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2871,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,16 +2900,14 @@
         <v>147.06417843</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
       <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3115,7 +2933,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3148,7 +2966,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3214,7 +3032,7 @@
         <v>84.92947842999997</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3313,7 +3131,7 @@
         <v>99.60290233999997</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3346,7 +3164,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3379,7 +3197,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3412,7 +3230,7 @@
         <v>94.57080233999997</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3445,7 +3263,7 @@
         <v>61.50580233999997</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3478,7 +3296,7 @@
         <v>63.79350233999997</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3511,7 +3329,7 @@
         <v>64.13260233999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3544,7 +3362,7 @@
         <v>18.28560233999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3577,7 +3395,7 @@
         <v>4.109502339999976</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3808,7 +3626,7 @@
         <v>22.05170233999997</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3841,7 +3659,7 @@
         <v>26.25880233999997</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3940,7 +3758,7 @@
         <v>18.53420233999998</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3973,7 +3791,7 @@
         <v>9.670502339999976</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4006,7 +3824,7 @@
         <v>9.889802339999976</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4039,7 +3857,7 @@
         <v>11.88980233999998</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4072,7 +3890,7 @@
         <v>41.45490233999998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4105,7 +3923,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4138,7 +3956,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4171,7 +3989,7 @@
         <v>55.66040233999998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4204,7 +4022,7 @@
         <v>54.71280233999997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4237,7 +4055,7 @@
         <v>54.61000233999997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4270,7 +4088,7 @@
         <v>55.87580233999997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4303,7 +4121,7 @@
         <v>54.37580233999997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4336,7 +4154,7 @@
         <v>61.00800233999997</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -5689,7 +5507,7 @@
         <v>151.2367436</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5755,7 +5573,7 @@
         <v>159.2868436</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5788,7 +5606,7 @@
         <v>159.25904544</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5854,7 +5672,7 @@
         <v>151.20894544</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5887,7 +5705,7 @@
         <v>144.20894544</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5986,7 +5804,7 @@
         <v>143.08874544</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6019,7 +5837,7 @@
         <v>136.29704544</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6052,7 +5870,7 @@
         <v>114.24444544</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6085,7 +5903,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6118,7 +5936,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6151,7 +5969,7 @@
         <v>114.97794544</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6184,7 +6002,7 @@
         <v>116.97794544</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6217,7 +6035,7 @@
         <v>130.97794544</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6250,7 +6068,7 @@
         <v>130.97794544</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6283,7 +6101,7 @@
         <v>126.29614544</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6316,7 +6134,7 @@
         <v>123.48104544</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6349,7 +6167,7 @@
         <v>90.94104544000001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6382,7 +6200,7 @@
         <v>86.44874544000001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6415,7 +6233,7 @@
         <v>87.73784544000002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6448,7 +6266,7 @@
         <v>71.16594544000002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6481,7 +6299,7 @@
         <v>85.16594544000002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6514,7 +6332,7 @@
         <v>79.22614544000001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6547,7 +6365,7 @@
         <v>68.12614544000002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6613,7 +6431,7 @@
         <v>122.28613712</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7867,7 +7685,7 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8032,7 +7850,7 @@
         <v>10.77559616000002</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8065,7 +7883,7 @@
         <v>8.402596160000019</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8098,7 +7916,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8131,7 +7949,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8164,7 +7982,7 @@
         <v>60.46964344000002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8197,7 +8015,7 @@
         <v>53.46964344000002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8230,7 +8048,7 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8560,7 +8378,7 @@
         <v>68.96844343999999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8593,7 +8411,7 @@
         <v>75.68584343999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8626,7 +8444,7 @@
         <v>75.69434343999998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8659,7 +8477,7 @@
         <v>69.89434343999999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8692,7 +8510,7 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8725,7 +8543,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8758,7 +8576,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8791,7 +8609,7 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8824,7 +8642,7 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8857,7 +8675,7 @@
         <v>46.37684343999999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8890,7 +8708,7 @@
         <v>53.75264343999999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8923,7 +8741,7 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9055,7 +8873,7 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9121,7 +8939,7 @@
         <v>16.87414343999999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9154,7 +8972,7 @@
         <v>23.18984343999999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9187,7 +9005,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9220,7 +9038,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9253,7 +9071,7 @@
         <v>25.99764343999999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9286,7 +9104,7 @@
         <v>26.02404343999999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9319,7 +9137,7 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9352,7 +9170,7 @@
         <v>-7.611956560000014</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10111,7 +9929,7 @@
         <v>11.01354343999999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10144,7 +9962,7 @@
         <v>12.70134343999999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10177,7 +9995,7 @@
         <v>6.613443439999986</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10210,7 +10028,7 @@
         <v>-1.495556560000014</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10408,7 +10226,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10507,7 +10325,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10540,7 +10358,7 @@
         <v>-29.05255656000001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10573,7 +10391,7 @@
         <v>-70.82615656000002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10606,7 +10424,7 @@
         <v>6.382143439999979</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10639,7 +10457,7 @@
         <v>22.66494343999998</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10672,7 +10490,7 @@
         <v>24.06854343999998</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10705,7 +10523,7 @@
         <v>18.07204343999998</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10738,7 +10556,7 @@
         <v>21.27204343999998</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10903,7 +10721,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10936,7 +10754,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11035,7 +10853,7 @@
         <v>-21.05015656000002</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11068,7 +10886,7 @@
         <v>-21.03545656000001</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12036,6 +11854,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest DASH.xlsx
+++ b/BackTest/2020-01-21 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-12.99442840000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5.917428400000023</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-24.91842840000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-26.71842840000003</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8.325728400000024</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-7.202728400000024</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-70.52372840000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1478,11 +1478,9 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>113900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>114000</v>
       </c>
@@ -1560,19 +1558,11 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>114000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1607,13 +1597,9 @@
         <v>114100</v>
       </c>
       <c r="J36" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>114100</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1642,17 +1628,15 @@
         <v>-92.49292840000003</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>114100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>114000</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1683,15 +1667,17 @@
         <v>-96.74892840000003</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>114500</v>
+      </c>
       <c r="J38" t="n">
-        <v>114000</v>
+        <v>114100</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1722,17 +1708,15 @@
         <v>-96.40652840000003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>114300</v>
+      </c>
       <c r="J39" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>114300</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,11 +1751,11 @@
         <v>114400</v>
       </c>
       <c r="J40" t="n">
-        <v>114000</v>
+        <v>114300</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1808,11 +1792,11 @@
         <v>114200</v>
       </c>
       <c r="J41" t="n">
-        <v>114000</v>
+        <v>114300</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1849,13 +1833,9 @@
         <v>114400</v>
       </c>
       <c r="J42" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>114400</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1890,11 +1870,11 @@
         <v>116400</v>
       </c>
       <c r="J43" t="n">
-        <v>114000</v>
+        <v>114400</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1929,11 +1909,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>114000</v>
+        <v>114400</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1964,17 +1944,11 @@
         <v>-55.61352840000004</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2003,19 +1977,13 @@
         <v>-44.80742840000003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>114000</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.02219298245614</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2042,7 +2010,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2075,7 +2043,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2108,7 +2076,7 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2141,7 +2109,7 @@
         <v>16.96177159999996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2174,7 +2142,7 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2207,11 +2175,17 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>118900</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2240,11 +2214,15 @@
         <v>133.7144716</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2273,11 +2251,15 @@
         <v>127.5572716</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2306,11 +2288,15 @@
         <v>107.7962716</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2343,7 +2329,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2376,7 +2366,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2409,7 +2403,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,7 +2440,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2475,7 +2477,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2508,7 +2514,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2541,7 +2551,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2574,7 +2588,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2607,7 +2625,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2658,16 @@
         <v>208.05324886</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2669,7 +2693,7 @@
         <v>208.05324886</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2702,7 +2726,7 @@
         <v>209.20424886</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2735,7 +2759,7 @@
         <v>209.20424886</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2768,7 +2792,7 @@
         <v>239.97454886</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2801,7 +2825,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2834,7 +2858,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2867,7 +2891,7 @@
         <v>146.96407843</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2900,7 +2924,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2933,7 +2957,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2966,7 +2990,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3065,7 +3089,7 @@
         <v>87.23557842999998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3098,7 +3122,7 @@
         <v>97.31517842999997</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3197,7 +3221,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3230,7 +3254,7 @@
         <v>94.57080233999997</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3428,7 +3452,7 @@
         <v>13.66280233999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3461,7 +3485,7 @@
         <v>17.09570233999997</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3494,7 +3518,7 @@
         <v>11.73510233999997</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3527,7 +3551,7 @@
         <v>20.01240233999997</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3560,7 +3584,7 @@
         <v>24.81240233999997</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3593,7 +3617,7 @@
         <v>20.87840233999997</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3692,7 +3716,7 @@
         <v>26.11230233999997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3725,7 +3749,7 @@
         <v>14.07470233999998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -7685,7 +7709,7 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7850,7 +7874,7 @@
         <v>10.77559616000002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7883,7 +7907,7 @@
         <v>8.402596160000019</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7916,7 +7940,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7949,7 +7973,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7982,7 +8006,7 @@
         <v>60.46964344000002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8015,7 +8039,7 @@
         <v>53.46964344000002</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8048,7 +8072,7 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8378,7 +8402,7 @@
         <v>68.96844343999999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8411,7 +8435,7 @@
         <v>75.68584343999999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8444,7 +8468,7 @@
         <v>75.69434343999998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8477,7 +8501,7 @@
         <v>69.89434343999999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8510,7 +8534,7 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8543,7 +8567,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8576,7 +8600,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8609,7 +8633,7 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8642,7 +8666,7 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8675,7 +8699,7 @@
         <v>46.37684343999999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8708,7 +8732,7 @@
         <v>53.75264343999999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8741,7 +8765,7 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8873,7 +8897,7 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8939,7 +8963,7 @@
         <v>16.87414343999999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8972,7 +8996,7 @@
         <v>23.18984343999999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9005,7 +9029,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9038,7 +9062,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9071,7 +9095,7 @@
         <v>25.99764343999999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9104,7 +9128,7 @@
         <v>26.02404343999999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9137,7 +9161,7 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9170,7 +9194,7 @@
         <v>-7.611956560000014</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9929,7 +9953,7 @@
         <v>11.01354343999999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9962,7 +9986,7 @@
         <v>12.70134343999999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9995,7 +10019,7 @@
         <v>6.613443439999986</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10028,7 +10052,7 @@
         <v>-1.495556560000014</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10226,7 +10250,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10325,7 +10349,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10358,7 +10382,7 @@
         <v>-29.05255656000001</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10391,7 +10415,7 @@
         <v>-70.82615656000002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10424,7 +10448,7 @@
         <v>6.382143439999979</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10457,7 +10481,7 @@
         <v>22.66494343999998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10490,7 +10514,7 @@
         <v>24.06854343999998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10523,7 +10547,7 @@
         <v>18.07204343999998</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10556,7 +10580,7 @@
         <v>21.27204343999998</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10721,7 +10745,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10754,7 +10778,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10853,7 +10877,7 @@
         <v>-21.05015656000002</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10886,7 +10910,7 @@
         <v>-21.03545656000001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
